--- a/src/main/resources/static/exceltemplate/upload/gross.xlsx
+++ b/src/main/resources/static/exceltemplate/upload/gross.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="gross" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -67,13 +67,10 @@
     <t>王五</t>
   </si>
   <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>爱上餐厅</t>
-  </si>
-  <si>
-    <t>总收入</t>
+    <t>赵柳</t>
+  </si>
+  <si>
+    <t>货款</t>
   </si>
 </sst>
 </file>
@@ -81,13 +78,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -101,22 +98,113 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,90 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,23 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +264,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,163 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +449,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,8 +496,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,15 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,182 +541,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -717,9 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,15 +1092,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <cols>
-    <col min="6" max="6" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2857142857143" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.2857142857143" customWidth="1"/>
     <col min="15" max="15" width="20.7142857142857" customWidth="1"/>
   </cols>
@@ -1174,41 +1162,88 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43499</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43591</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5">
-        <v>43499</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>123</v>
-      </c>
-      <c r="I2">
-        <v>321</v>
-      </c>
-      <c r="J2">
-        <v>123</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>1.23</v>
-      </c>
-      <c r="M2">
-        <v>1.45</v>
-      </c>
-      <c r="N2">
-        <v>4.51</v>
-      </c>
-      <c r="O2">
-        <v>5.31</v>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/exceltemplate/upload/gross.xlsx
+++ b/src/main/resources/static/exceltemplate/upload/gross.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="gross" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -67,10 +67,13 @@
     <t>王五</t>
   </si>
   <si>
-    <t>赵柳</t>
-  </si>
-  <si>
-    <t>货款</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>爱上餐厅</t>
+  </si>
+  <si>
+    <t>总收入</t>
   </si>
 </sst>
 </file>
@@ -78,13 +81,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,23 +101,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,60 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,11 +198,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,17 +212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +236,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,181 +273,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +458,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,229 +558,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +717,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1092,15 +1104,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="6" max="6" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4285714285714" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.2857142857143" customWidth="1"/>
     <col min="15" max="15" width="20.7142857142857" customWidth="1"/>
   </cols>
@@ -1162,88 +1174,41 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5">
         <v>43499</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>4.51</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43591</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
+        <v>5.31</v>
       </c>
     </row>
   </sheetData>
